--- a/Documentazione generale/Change Request CodeSmell/Matrice di Connettivita 2.xlsx
+++ b/Documentazione generale/Change Request CodeSmell/Matrice di Connettivita 2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anton\Documents\GitHub\Evoluzione-cASpER\Documentazione generale\Change Request Reengineering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\Evoluzione-cASpER\Documentazione generale\Change Request CodeSmell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5669164B-D931-4100-8B3D-CE54FBCF5043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="9">
   <si>
     <t>SLO0</t>
   </si>
@@ -51,25 +50,13 @@
     <t>SLO7</t>
   </si>
   <si>
-    <t>SLO8</t>
-  </si>
-  <si>
-    <t>SLO9</t>
-  </si>
-  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>SLO10</t>
-  </si>
-  <si>
-    <t>SLO11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -380,16 +370,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -414,107 +404,63 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="K5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="K7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
